--- a/Matlab/ForeCasteToolbox/Input/Mar.xlsx
+++ b/Matlab/ForeCasteToolbox/Input/Mar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.Reports\2. infl\Inflation_Forecasting_Toolbox_Q_1.2\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Davoudi\Github\StMrDat\Matlab\ForeCasteToolbox\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -49,11 +49,17 @@
   <si>
     <t>Or</t>
   </si>
+  <si>
+    <t>CPI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-160429]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,2351 +372,2642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>733804</v>
       </c>
       <c r="B2">
         <v>611.38</v>
       </c>
       <c r="C2">
+        <v>211.93299999999999</v>
+      </c>
+      <c r="D2">
         <v>102.39</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>42.02</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>85.07</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>72.510000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>733832</v>
       </c>
       <c r="B3">
         <v>551.53</v>
       </c>
       <c r="C3">
+        <v>212.70500000000001</v>
+      </c>
+      <c r="D3">
         <v>98.16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>43.23</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>80.760000000000005</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>75.59</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>733863</v>
       </c>
       <c r="B4">
         <v>595.57000000000005</v>
       </c>
       <c r="C4">
+        <v>212.495</v>
+      </c>
+      <c r="D4">
         <v>100.11</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>46.65</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>65.36</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>64.069999999999993</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>733893</v>
       </c>
       <c r="B5">
         <v>666.68</v>
       </c>
       <c r="C5">
+        <v>212.709</v>
+      </c>
+      <c r="D5">
         <v>104.14</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>50.36</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>68.099999999999994</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>59.78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>733924</v>
       </c>
       <c r="B6">
         <v>730.49</v>
       </c>
       <c r="C6">
+        <v>213.02199999999999</v>
+      </c>
+      <c r="D6">
         <v>114.89</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>63.71</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>69.11</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>62.69</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>733954</v>
       </c>
       <c r="B7">
         <v>727.54</v>
       </c>
       <c r="C7">
+        <v>214.79</v>
+      </c>
+      <c r="D7">
         <v>128.22</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>69.56</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>76.48</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>71.66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>733985</v>
       </c>
       <c r="B8">
         <v>790.68</v>
       </c>
       <c r="C8">
+        <v>214.726</v>
+      </c>
+      <c r="D8">
         <v>123.51</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>68.59</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>79.069999999999993</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>83.95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>734016</v>
       </c>
       <c r="B9">
         <v>817.4</v>
       </c>
       <c r="C9">
+        <v>215.44499999999999</v>
+      </c>
+      <c r="D9">
         <v>132.91</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>70.37</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>77.680000000000007</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>97.67</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>734046</v>
       </c>
       <c r="B10">
         <v>856.04</v>
       </c>
       <c r="C10">
+        <v>215.86099999999999</v>
+      </c>
+      <c r="D10">
         <v>127.63</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>65.55</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>72.47</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>80.709999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>734077</v>
       </c>
       <c r="B11">
         <v>840.37</v>
       </c>
       <c r="C11">
+        <v>216.50899999999999</v>
+      </c>
+      <c r="D11">
         <v>134.88</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>75.56</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>76.150000000000006</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>86.79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>734107</v>
       </c>
       <c r="B12">
         <v>872.13</v>
       </c>
       <c r="C12">
+        <v>217.23400000000001</v>
+      </c>
+      <c r="D12">
         <v>140.93</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>76.209999999999994</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>84.43</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>99.26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>734138</v>
       </c>
       <c r="B13">
         <v>891.89</v>
       </c>
       <c r="C13">
+        <v>217.34700000000001</v>
+      </c>
+      <c r="D13">
         <v>140.91</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>77.16</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>89.04</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>105.25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>734169</v>
       </c>
       <c r="B14">
         <v>855.53</v>
       </c>
       <c r="C14">
+        <v>217.488</v>
+      </c>
+      <c r="D14">
         <v>146.12</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>71.010000000000005</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>103.93</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>125.91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>734197</v>
       </c>
       <c r="B15">
         <v>866.1</v>
       </c>
       <c r="C15">
+        <v>217.28100000000001</v>
+      </c>
+      <c r="D15">
         <v>142.43</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>74.599999999999994</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>100.92</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>127.62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>734228</v>
       </c>
       <c r="B16">
         <v>921.39</v>
       </c>
       <c r="C16">
+        <v>217.35300000000001</v>
+      </c>
+      <c r="D16">
         <v>148.9</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>78.7</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>101.12</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>139.77000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>734258</v>
       </c>
       <c r="B17">
         <v>925.89</v>
       </c>
       <c r="C17">
+        <v>217.40299999999999</v>
+      </c>
+      <c r="D17">
         <v>158.01</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>84.13</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>107.3</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>172.47</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>734289</v>
       </c>
       <c r="B18">
         <v>835.02</v>
       </c>
       <c r="C18">
+        <v>217.29</v>
+      </c>
+      <c r="D18">
         <v>146.61000000000001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>71.88</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>107.28</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>161.35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>734319</v>
       </c>
       <c r="B19">
         <v>810.32</v>
       </c>
       <c r="C19">
+        <v>217.19900000000001</v>
+      </c>
+      <c r="D19">
         <v>143.49</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>72.489999999999995</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>105.2</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>143.63</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>734350</v>
       </c>
       <c r="B20">
         <v>873.29</v>
       </c>
       <c r="C20">
+        <v>217.60499999999999</v>
+      </c>
+      <c r="D20">
         <v>144.05000000000001</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>74.430000000000007</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>102.84</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>126.36</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>734381</v>
       </c>
       <c r="B21">
         <v>841.11</v>
       </c>
       <c r="C21">
+        <v>217.923</v>
+      </c>
+      <c r="D21">
         <v>148.44999999999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>72.39</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>96.19</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>145.34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>734411</v>
       </c>
       <c r="B22">
         <v>922.25</v>
       </c>
       <c r="C22">
+        <v>218.27500000000001</v>
+      </c>
+      <c r="D22">
         <v>150.28</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>77.48</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>101.68</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>140.63</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>734442</v>
       </c>
       <c r="B23">
         <v>955.38</v>
       </c>
       <c r="C23">
+        <v>219.035</v>
+      </c>
+      <c r="D23">
         <v>159.55000000000001</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>79.42</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>104.41</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>148.47999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>734472</v>
       </c>
       <c r="B24">
         <v>936.43</v>
       </c>
       <c r="C24">
+        <v>219.59</v>
+      </c>
+      <c r="D24">
         <v>164.9</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>83.65</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>114.81</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>160.55000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>734503</v>
       </c>
       <c r="B25">
         <v>1004.15</v>
       </c>
       <c r="C25">
+        <v>220.47200000000001</v>
+      </c>
+      <c r="D25">
         <v>174.9</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>88.99</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>126.74</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>168.53</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>734534</v>
       </c>
       <c r="B26">
         <v>1015.04</v>
       </c>
       <c r="C26">
+        <v>221.18700000000001</v>
+      </c>
+      <c r="D26">
         <v>182.13</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>95.53</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>141.94</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>179.63</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>734562</v>
       </c>
       <c r="B27">
         <v>1042.54</v>
       </c>
       <c r="C27">
+        <v>221.898</v>
+      </c>
+      <c r="D27">
         <v>190.04</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>108.5</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>137.53</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>187.18</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>734593</v>
       </c>
       <c r="B28">
         <v>1042.9000000000001</v>
       </c>
       <c r="C28">
+        <v>223.04599999999999</v>
+      </c>
+      <c r="D28">
         <v>199.61</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>111.42</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>135.13999999999999</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>169.36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>734623</v>
       </c>
       <c r="B29">
         <v>1082.07</v>
       </c>
       <c r="C29">
+        <v>224.09299999999999</v>
+      </c>
+      <c r="D29">
         <v>210.09</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>120.35</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>131.25</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>179.26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>734654</v>
       </c>
       <c r="B30">
         <v>1055.1199999999999</v>
       </c>
       <c r="C30">
+        <v>224.80600000000001</v>
+      </c>
+      <c r="D30">
         <v>199.53</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>111.2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>127.63</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>177.09</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>734684</v>
       </c>
       <c r="B31">
         <v>1035.1600000000001</v>
       </c>
       <c r="C31">
+        <v>224.80600000000001</v>
+      </c>
+      <c r="D31">
         <v>196</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>107.5</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>128.66999999999999</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>170.88</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>734715</v>
       </c>
       <c r="B32">
         <v>1016.47</v>
       </c>
       <c r="C32">
+        <v>225.39500000000001</v>
+      </c>
+      <c r="D32">
         <v>198.95</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>112.18</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>129.38</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>172.98</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>734746</v>
       </c>
       <c r="B33">
         <v>937.95</v>
       </c>
       <c r="C33">
+        <v>226.10599999999999</v>
+      </c>
+      <c r="D33">
         <v>190.51</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>111.4</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>128.71</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>177.45</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>734776</v>
       </c>
       <c r="B34">
         <v>843.74</v>
       </c>
       <c r="C34">
+        <v>226.59700000000001</v>
+      </c>
+      <c r="D34">
         <v>188.72</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>101.57</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>131.88</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>177.23</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>734807</v>
       </c>
       <c r="B35">
         <v>934.64</v>
       </c>
       <c r="C35">
+        <v>226.75</v>
+      </c>
+      <c r="D35">
         <v>182.87</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>107.12</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>127.92</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>150.43</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>734837</v>
       </c>
       <c r="B36">
         <v>903.76</v>
       </c>
       <c r="C36">
+        <v>227.16900000000001</v>
+      </c>
+      <c r="D36">
         <v>186.38</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>110.38</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>121.91</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>135.54</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>734868</v>
       </c>
       <c r="B37">
         <v>899.7</v>
       </c>
       <c r="C37">
+        <v>227.22300000000001</v>
+      </c>
+      <c r="D37">
         <v>184.04</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>106.84</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>119.53</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>136.44999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>734899</v>
       </c>
       <c r="B38">
         <v>955</v>
       </c>
       <c r="C38">
+        <v>227.86</v>
+      </c>
+      <c r="D38">
         <v>188.4</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>111.21</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>8484.5</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2136</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>124.78</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>140.35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>734928</v>
       </c>
       <c r="B39">
         <v>1001.1</v>
       </c>
       <c r="C39">
+        <v>228.37700000000001</v>
+      </c>
+      <c r="D39">
         <v>195.87</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>120.79</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>8583</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>2180</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>125.38</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>140.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>734959</v>
       </c>
       <c r="B40">
         <v>1004.21</v>
       </c>
       <c r="C40">
+        <v>228.89400000000001</v>
+      </c>
+      <c r="D40">
         <v>201.81</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>120.89</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>8479.5</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>2020</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>115.14</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>144.66</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>734989</v>
       </c>
       <c r="B41">
         <v>990.66</v>
       </c>
       <c r="C41">
+        <v>229.286</v>
+      </c>
+      <c r="D41">
         <v>197.53</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>117.2</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>8529</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1960</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>110.99</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>147.65</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>735020</v>
       </c>
       <c r="B42">
         <v>898.19</v>
       </c>
       <c r="C42">
+        <v>228.72200000000001</v>
+      </c>
+      <c r="D42">
         <v>185.14</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>101.06</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>7516</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>1895</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>102.67</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>136.27000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>735050</v>
       </c>
       <c r="B43">
         <v>937.73</v>
       </c>
       <c r="C43">
+        <v>228.506</v>
+      </c>
+      <c r="D43">
         <v>169.95</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>92.99</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>7604</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>1750</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>93.42</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>134.62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>735081</v>
       </c>
       <c r="B44">
         <v>948.16</v>
       </c>
       <c r="C44">
+        <v>228.47499999999999</v>
+      </c>
+      <c r="D44">
         <v>177.9</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>102.22</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>7580</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>1745</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>94.54</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>127.94</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>735112</v>
       </c>
       <c r="B45">
         <v>967.18</v>
       </c>
       <c r="C45">
+        <v>229.84399999999999</v>
+      </c>
+      <c r="D45">
         <v>185.46</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>111.17</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>7576</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>1749.5</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>97.5</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>107.8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>735142</v>
       </c>
       <c r="B46">
         <v>996.85</v>
       </c>
       <c r="C46">
+        <v>230.98699999999999</v>
+      </c>
+      <c r="D46">
         <v>186.9</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>109.68</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>8266.5</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>1967</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>95.31</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>99.47</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>735173</v>
       </c>
       <c r="B47">
         <v>989.42</v>
       </c>
       <c r="C47">
+        <v>231.655</v>
+      </c>
+      <c r="D47">
         <v>183.11</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>106.16</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>7818</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>1780</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>87.7</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>113.95</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>735203</v>
       </c>
       <c r="B48">
         <v>1000</v>
       </c>
       <c r="C48">
+        <v>231.27799999999999</v>
+      </c>
+      <c r="D48">
         <v>180.59</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>108.59</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>7948.5</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>2015</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>92.03</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>120.35</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>735234</v>
       </c>
       <c r="B49">
         <v>1025.0999999999999</v>
       </c>
       <c r="C49">
+        <v>231.27199999999999</v>
+      </c>
+      <c r="D49">
         <v>182.48</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>107.76</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>7914.5</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>1850</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>99.51</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>128.87</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>735265</v>
       </c>
       <c r="B50">
         <v>1072.1400000000001</v>
       </c>
       <c r="C50">
+        <v>231.64099999999999</v>
+      </c>
+      <c r="D50">
         <v>187.55</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>112.3</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>8168</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>1850</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>99.4</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>150.49</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>735293</v>
       </c>
       <c r="B51">
         <v>1071.24</v>
       </c>
       <c r="C51">
+        <v>233.005</v>
+      </c>
+      <c r="D51">
         <v>190.65</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>108.62</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>7825</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>1840</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>101.72</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>154.63999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>735324</v>
       </c>
       <c r="B52">
         <v>1089.02</v>
       </c>
       <c r="C52">
+        <v>232.31299999999999</v>
+      </c>
+      <c r="D52">
         <v>183.73</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>107.23</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>7582</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>1802.5</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>97.48</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>139.87</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>735354</v>
       </c>
       <c r="B53">
         <v>1116.54</v>
       </c>
       <c r="C53">
+        <v>231.85599999999999</v>
+      </c>
+      <c r="D53">
         <v>179</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>100.65</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>7073</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>1780</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>94.03</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>137.38999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>735385</v>
       </c>
       <c r="B54">
         <v>1111.3800000000001</v>
       </c>
       <c r="C54">
+        <v>231.89500000000001</v>
+      </c>
+      <c r="D54">
         <v>179.4</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>98.78</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>7240</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>1795</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>93.97</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>124.01</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>735415</v>
       </c>
       <c r="B55">
         <v>1076.79</v>
       </c>
       <c r="C55">
+        <v>232.357</v>
+      </c>
+      <c r="D55">
         <v>179.17</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>100.78</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>6750</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>1775</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>88.67</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>114.81</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>735446</v>
       </c>
       <c r="B56">
         <v>1128.06</v>
       </c>
       <c r="C56">
+        <v>232.749</v>
+      </c>
+      <c r="D56">
         <v>183.55</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>104.97</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>6800</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>1755</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>82.78</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>127.19</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>735477</v>
       </c>
       <c r="B57">
         <v>1102</v>
       </c>
       <c r="C57">
+        <v>233.249</v>
+      </c>
+      <c r="D57">
         <v>185.67</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>111.55</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>7094</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1770</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>82.46</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>137.06</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>735507</v>
       </c>
       <c r="B58">
         <v>1159.44</v>
       </c>
       <c r="C58">
+        <v>233.642</v>
+      </c>
+      <c r="D58">
         <v>185.09</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>105.61</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>7290</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>1780</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>83.16</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>134.19</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>735538</v>
       </c>
       <c r="B59">
         <v>1203.98</v>
       </c>
       <c r="C59">
+        <v>233.79900000000001</v>
+      </c>
+      <c r="D59">
         <v>182.37</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>106.75</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>7233</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>1805</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>85.08</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>132.57</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>735568</v>
       </c>
       <c r="B60">
         <v>1217.71</v>
       </c>
       <c r="C60">
+        <v>234.21</v>
+      </c>
+      <c r="D60">
         <v>179.67</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>107.07</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>7026</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>1750</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>88.12</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>136.32</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>735599</v>
       </c>
       <c r="B61">
         <v>1237.58</v>
       </c>
       <c r="C61">
+        <v>234.84700000000001</v>
+      </c>
+      <c r="D61">
         <v>183.95</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>107.94</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>7394</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>1815</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>90.36</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>135.79</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>735630</v>
       </c>
       <c r="B62">
         <v>1190.69</v>
       </c>
       <c r="C62">
+        <v>235.43600000000001</v>
+      </c>
+      <c r="D62">
         <v>180.14</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>104.45</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>7090</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>1780</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>87.44</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>128.12</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>735658</v>
       </c>
       <c r="B63">
         <v>1246.4100000000001</v>
       </c>
       <c r="C63">
+        <v>235.62100000000001</v>
+      </c>
+      <c r="D63">
         <v>183.28</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>105.92</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>7097</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>1801</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>81.739999999999995</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>121.37</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>735689</v>
       </c>
       <c r="B64">
         <v>1248.8599999999999</v>
       </c>
       <c r="C64">
+        <v>235.89699999999999</v>
+      </c>
+      <c r="D64">
         <v>183.12</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>104.08</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>6635.5</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>1890</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>78.58</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>111.83</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>735719</v>
       </c>
       <c r="B65">
         <v>1254.45</v>
       </c>
       <c r="C65">
+        <v>236.495</v>
+      </c>
+      <c r="D65">
         <v>184.66</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>103.95</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>6723</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>1905</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>78.02</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>114.58</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>735750</v>
       </c>
       <c r="B66">
         <v>1275.83</v>
       </c>
       <c r="C66">
+        <v>236.803</v>
+      </c>
+      <c r="D66">
         <v>184.26</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>105.91</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>6995</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1970</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>78.95</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>100.56</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>735780</v>
       </c>
       <c r="B67">
         <v>1301.23</v>
       </c>
       <c r="C67">
+        <v>237.01599999999999</v>
+      </c>
+      <c r="D67">
         <v>185.15</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>108.59</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>6954</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>1985</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>76.59</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>92.74</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>735811</v>
       </c>
       <c r="B68">
         <v>1279.6500000000001</v>
       </c>
       <c r="C68">
+        <v>237.25899999999999</v>
+      </c>
+      <c r="D68">
         <v>181.29</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>103.6</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>7135</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>1965</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>73.66</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>95.97</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>735842</v>
       </c>
       <c r="B69">
         <v>1306.93</v>
       </c>
       <c r="C69">
+        <v>237.16300000000001</v>
+      </c>
+      <c r="D69">
         <v>175.15</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>99.99</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>6994</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>2055</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>73.86</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>92.63</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>735872</v>
       </c>
       <c r="B70">
         <v>1258.68</v>
       </c>
       <c r="C70">
+        <v>237.51</v>
+      </c>
+      <c r="D70">
         <v>168.39</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>94.17</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>6735</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>2080</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>70.650000000000006</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>82.27</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>735903</v>
       </c>
       <c r="B71">
         <v>1267.71</v>
       </c>
       <c r="C71">
+        <v>237.65100000000001</v>
+      </c>
+      <c r="D71">
         <v>157.47999999999999</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>81.97</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>6834.5</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>2075</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>68.260000000000005</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>80.09</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>735933</v>
       </c>
       <c r="B72">
         <v>1284.31</v>
       </c>
       <c r="C72">
+        <v>237.261</v>
+      </c>
+      <c r="D72">
         <v>148.46</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>68.89</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>6515</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>2000</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>67.02</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>73.12</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>735964</v>
       </c>
       <c r="B73">
         <v>1261.9000000000001</v>
       </c>
       <c r="C73">
+        <v>236.464</v>
+      </c>
+      <c r="D73">
         <v>130.76</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>52</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>6358</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>1795</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>66.900000000000006</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>68.8</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>735995</v>
       </c>
       <c r="B74">
         <v>1242.72</v>
       </c>
       <c r="C74">
+        <v>234.95400000000001</v>
+      </c>
+      <c r="D74">
         <v>114.81</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>44.83</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>5500</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>1870</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>66.540000000000006</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>67.39</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>736023</v>
       </c>
       <c r="B75">
         <v>1308.8599999999999</v>
       </c>
       <c r="C75">
+        <v>235.41499999999999</v>
+      </c>
+      <c r="D75">
         <v>120.88</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>56.83</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>5880</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>1790</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>65.790000000000006</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>62.69</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>736054</v>
       </c>
       <c r="B76">
         <v>1288.48</v>
       </c>
       <c r="C76">
+        <v>235.85900000000001</v>
+      </c>
+      <c r="D76">
         <v>116.99</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>51.06</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>6050</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>1750</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>64.41</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>56.94</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>736084</v>
       </c>
       <c r="B77">
         <v>1321.21</v>
       </c>
       <c r="C77">
+        <v>236.197</v>
+      </c>
+      <c r="D77">
         <v>119.5</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>62.21</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>6244.5</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>1805</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>61.94</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>51.15</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
         <v>736115</v>
       </c>
       <c r="B78">
         <v>1317.63</v>
       </c>
       <c r="C78">
+        <v>236.876</v>
+      </c>
+      <c r="D78">
         <v>124.72</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>60.47</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>6088</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>1715</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>64.709999999999994</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>60.23</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
         <v>736145</v>
       </c>
       <c r="B79">
         <v>1286.31</v>
       </c>
       <c r="C79">
+        <v>237.423</v>
+      </c>
+      <c r="D79">
         <v>122.61</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>58.79</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>5720</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>1775</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>63.04</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>62.29</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
         <v>736176</v>
       </c>
       <c r="B80">
         <v>1292.94</v>
       </c>
       <c r="C80">
+        <v>237.73400000000001</v>
+      </c>
+      <c r="D80">
         <v>114.39</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>50.51</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>5218</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>1690</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>63.35</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>51.5</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>736207</v>
       </c>
       <c r="B81">
         <v>1204.3900000000001</v>
       </c>
       <c r="C81">
+        <v>237.703</v>
+      </c>
+      <c r="D81">
         <v>104.24</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>47.01</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>5094</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>1675</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>62.76</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>55.38</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>736237</v>
       </c>
       <c r="B82">
         <v>1159</v>
       </c>
       <c r="C82">
+        <v>237.489</v>
+      </c>
+      <c r="D82">
         <v>103.48</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>43.58</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>5092.5</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>1675</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>58.66</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>56.43</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>736268</v>
       </c>
       <c r="B83">
         <v>1246.23</v>
       </c>
       <c r="C83">
+        <v>237.94900000000001</v>
+      </c>
+      <c r="D83">
         <v>103.47</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>43.66</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>5135</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>1605</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>56.05</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>52.74</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>736298</v>
       </c>
       <c r="B84">
         <v>1236.54</v>
       </c>
       <c r="C84">
+        <v>238.30199999999999</v>
+      </c>
+      <c r="D84">
         <v>97.47</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>38.93</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>4595</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>1600</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>56.33</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>46.16</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>736329</v>
       </c>
       <c r="B85">
         <v>1212.06</v>
       </c>
       <c r="C85">
+        <v>238.041</v>
+      </c>
+      <c r="D85">
         <v>90.73</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>31.27</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>4701.5</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>1600</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>55.85</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>39.6</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>736360</v>
       </c>
       <c r="B86">
         <v>1136.31</v>
       </c>
       <c r="C86">
+        <v>238.107</v>
+      </c>
+      <c r="D86">
         <v>83.05</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>29.11</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>4553</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>1570</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>53.37</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>41.25</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>736389</v>
       </c>
       <c r="B87">
         <v>1127.1199999999999</v>
       </c>
       <c r="C87">
+        <v>237.70699999999999</v>
+      </c>
+      <c r="D87">
         <v>83.85</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>30.13</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>4704.5</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>1565</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>54.33</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>46.18</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>736420</v>
       </c>
       <c r="B88">
         <v>1209.3399999999999</v>
       </c>
       <c r="C88">
+        <v>237.92</v>
+      </c>
+      <c r="D88">
         <v>92.2</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>34.33</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>4855</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>1565</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>55.92</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>55.52</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>736450</v>
       </c>
       <c r="B89">
         <v>1226.74</v>
       </c>
       <c r="C89">
+        <v>238.89</v>
+      </c>
+      <c r="D89">
         <v>96.2</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>42.7</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>5044.5</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>1540</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>54.4</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>59.58</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>736481</v>
       </c>
       <c r="B90">
         <v>1224.6300000000001</v>
       </c>
       <c r="C90">
+        <v>239.40299999999999</v>
+      </c>
+      <c r="D90">
         <v>102.07</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>45.15</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>4698</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>1535</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>55.16</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>54.85</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>736511</v>
       </c>
       <c r="B91">
         <v>1214.0899999999999</v>
       </c>
       <c r="C91">
+        <v>239.90700000000001</v>
+      </c>
+      <c r="D91">
         <v>105.29</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>46.27</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>4826</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>1525</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>56.97</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>51.36</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>736542</v>
       </c>
       <c r="B92">
         <v>1267.1600000000001</v>
       </c>
       <c r="C92">
+        <v>239.81</v>
+      </c>
+      <c r="D92">
         <v>102.62</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>38.97</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>4852</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>1540</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>66.739999999999995</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>56.57</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>736573</v>
       </c>
       <c r="B93">
         <v>1268.54</v>
       </c>
       <c r="C93">
+        <v>240.30099999999999</v>
+      </c>
+      <c r="D93">
         <v>102.54</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>43.91</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>4602</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>1575</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>72.19</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>60.47</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>736603</v>
       </c>
       <c r="B94">
         <v>1274.7</v>
       </c>
       <c r="C94">
+        <v>241.00200000000001</v>
+      </c>
+      <c r="D94">
         <v>102.16</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>44.63</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>4831.5</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>1565</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>78.11</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>56.67</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>736634</v>
       </c>
       <c r="B95">
         <v>1251.8499999999999</v>
       </c>
       <c r="C95">
+        <v>241.863</v>
+      </c>
+      <c r="D95">
         <v>108</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>45.83</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>4826.5</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>1565</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>99.82</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>58.02</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>736664</v>
       </c>
       <c r="B96">
         <v>1260.4100000000001</v>
       </c>
       <c r="C96">
+        <v>242.34800000000001</v>
+      </c>
+      <c r="D96">
         <v>106.68</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>44.8</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>5739</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>1555</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>107.14</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>72.25</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
         <v>736695</v>
       </c>
       <c r="B97">
         <v>1287.3399999999999</v>
       </c>
-      <c r="C97">
+      <c r="D97">
         <v>114.69</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>53.3</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>5500</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>1540</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>92.74</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>79.75</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
         <v>736726</v>
       </c>
       <c r="B98">
         <v>1320.95</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>52.19</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>5920.5</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>1585</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>736754</v>
       </c>
       <c r="B99">
-        <v>1331.64</v>
-      </c>
-      <c r="D99">
-        <v>52.76</v>
+        <v>1327.2</v>
       </c>
       <c r="E99">
-        <v>5902</v>
+        <v>53.77</v>
       </c>
       <c r="F99">
+        <v>5785.5</v>
+      </c>
+      <c r="G99">
         <v>1585</v>
       </c>
     </row>
